--- a/VersionRecords/Version 5.0.0/版本Bug和特性计划及评审表v5.0.0_捷豹组.xlsx
+++ b/VersionRecords/Version 5.0.0/版本Bug和特性计划及评审表v5.0.0_捷豹组.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="29760" yWindow="3200" windowWidth="25600" windowHeight="13020"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.0.0 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="57">
   <si>
     <t>No</t>
   </si>
@@ -356,6 +356,79 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>quan'x</t>
+    </rPh>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>房源录入费用类型补充</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>补录租约费用类型和消息按钮</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售权限调整</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>退房调整</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql性能优化</t>
+    <rPh sb="3" eb="4">
+      <t>xing'neng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>you'h</t>
+    </rPh>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>账务日志优化</t>
+    <rPh sb="0" eb="1">
+      <t>zhang'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ri'zhi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>you'h</t>
+    </rPh>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>退房开放销售</t>
+    <rPh sb="0" eb="1">
+      <t>tui'f</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>kai'f</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiao'shou</t>
+    </rPh>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC/房东APP</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <rPh sb="0" eb="1">
+      <t>tong'guo</t>
+    </rPh>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <rPh sb="0" eb="1">
+      <t>neng</t>
     </rPh>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -554,7 +627,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -654,6 +727,54 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -756,7 +877,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="5"/>
     <cellStyle name="常规 3" xfId="6"/>
@@ -777,6 +898,14 @@
     <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="甘特图" xfId="2"/>
     <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
@@ -792,6 +921,14 @@
     <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1165,8 +1302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1285,9 +1422,15 @@
       <c r="L2" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="24"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="24"/>
+      <c r="M2" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="16">
+        <v>42618</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>56</v>
+      </c>
       <c r="P2" s="25"/>
       <c r="Q2" s="25"/>
       <c r="R2" s="25"/>
@@ -1327,9 +1470,15 @@
       <c r="L3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="24"/>
+      <c r="M3" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="N3" s="16">
+        <v>42618</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>56</v>
+      </c>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21"/>
@@ -1369,9 +1518,15 @@
       <c r="L4" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="24"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="24"/>
+      <c r="M4" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" s="16">
+        <v>42618</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>56</v>
+      </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
       <c r="R4" s="21"/>
@@ -1411,9 +1566,15 @@
       <c r="L5" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="24"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="24"/>
+      <c r="M5" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="N5" s="16">
+        <v>42618</v>
+      </c>
+      <c r="O5" s="24" t="s">
+        <v>56</v>
+      </c>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
       <c r="R5" s="21"/>
@@ -1453,9 +1614,15 @@
       <c r="L6" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="24"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="24"/>
+      <c r="M6" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="N6" s="16">
+        <v>42618</v>
+      </c>
+      <c r="O6" s="24" t="s">
+        <v>56</v>
+      </c>
       <c r="P6" s="21"/>
       <c r="Q6" s="21"/>
       <c r="R6" s="21"/>
@@ -1495,9 +1662,15 @@
       <c r="L7" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="24"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="24"/>
+      <c r="M7" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="N7" s="16">
+        <v>42618</v>
+      </c>
+      <c r="O7" s="24" t="s">
+        <v>56</v>
+      </c>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
       <c r="R7" s="21"/>
@@ -1537,9 +1710,15 @@
       <c r="L8" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="24"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="24"/>
+      <c r="M8" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" s="16">
+        <v>42618</v>
+      </c>
+      <c r="O8" s="24" t="s">
+        <v>56</v>
+      </c>
       <c r="P8" s="21"/>
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
@@ -1579,9 +1758,15 @@
       <c r="L9" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="M9" s="24"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="24"/>
+      <c r="M9" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="N9" s="16">
+        <v>42618</v>
+      </c>
+      <c r="O9" s="24" t="s">
+        <v>56</v>
+      </c>
       <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
       <c r="R9" s="21"/>
@@ -1621,9 +1806,15 @@
       <c r="L10" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="24"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="24"/>
+      <c r="M10" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="N10" s="16">
+        <v>42618</v>
+      </c>
+      <c r="O10" s="24" t="s">
+        <v>56</v>
+      </c>
       <c r="P10" s="21"/>
       <c r="Q10" s="21"/>
       <c r="R10" s="21"/>
@@ -1663,9 +1854,15 @@
       <c r="L11" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="M11" s="24"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="24"/>
+      <c r="M11" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="N11" s="16">
+        <v>42618</v>
+      </c>
+      <c r="O11" s="24" t="s">
+        <v>56</v>
+      </c>
       <c r="P11" s="21"/>
       <c r="Q11" s="21"/>
       <c r="R11" s="21"/>
@@ -1705,9 +1902,15 @@
       <c r="L12" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="M12" s="24"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="24"/>
+      <c r="M12" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="N12" s="16">
+        <v>42618</v>
+      </c>
+      <c r="O12" s="24" t="s">
+        <v>56</v>
+      </c>
       <c r="P12" s="21"/>
       <c r="Q12" s="21"/>
       <c r="R12" s="21"/>
@@ -1715,21 +1918,47 @@
       <c r="T12" s="29"/>
     </row>
     <row r="13" spans="1:20" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A13" s="14"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="A13" s="14">
+        <v>12</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="16">
+        <v>42612</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="16">
+        <v>42612</v>
+      </c>
       <c r="I13" s="15"/>
       <c r="J13" s="24"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="24"/>
+      <c r="K13" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="N13" s="16">
+        <v>42618</v>
+      </c>
+      <c r="O13" s="24" t="s">
+        <v>56</v>
+      </c>
       <c r="P13" s="21"/>
       <c r="Q13" s="21"/>
       <c r="R13" s="21"/>
@@ -1737,21 +1966,47 @@
       <c r="T13" s="29"/>
     </row>
     <row r="14" spans="1:20" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A14" s="14"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="A14" s="14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="16">
+        <v>42612</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="16">
+        <v>42612</v>
+      </c>
       <c r="I14" s="15"/>
       <c r="J14" s="24"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="24"/>
+      <c r="K14" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="N14" s="16">
+        <v>42618</v>
+      </c>
+      <c r="O14" s="24" t="s">
+        <v>56</v>
+      </c>
       <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
       <c r="R14" s="21"/>
@@ -1759,21 +2014,47 @@
       <c r="T14" s="29"/>
     </row>
     <row r="15" spans="1:20" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A15" s="14"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
+      <c r="A15" s="14">
+        <v>14</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="16">
+        <v>42612</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="16">
+        <v>42612</v>
+      </c>
       <c r="I15" s="15"/>
       <c r="J15" s="24"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="24"/>
+      <c r="K15" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="N15" s="16">
+        <v>42618</v>
+      </c>
+      <c r="O15" s="24" t="s">
+        <v>56</v>
+      </c>
       <c r="P15" s="21"/>
       <c r="Q15" s="21"/>
       <c r="R15" s="21"/>
@@ -1781,21 +2062,47 @@
       <c r="T15" s="29"/>
     </row>
     <row r="16" spans="1:20" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A16" s="14"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
+      <c r="A16" s="14">
+        <v>15</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="16">
+        <v>42612</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="16">
+        <v>42612</v>
+      </c>
       <c r="I16" s="15"/>
       <c r="J16" s="24"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="24"/>
+      <c r="K16" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="N16" s="16">
+        <v>42618</v>
+      </c>
+      <c r="O16" s="24" t="s">
+        <v>56</v>
+      </c>
       <c r="P16" s="21"/>
       <c r="Q16" s="21"/>
       <c r="R16" s="21"/>
@@ -1803,21 +2110,47 @@
       <c r="T16" s="29"/>
     </row>
     <row r="17" spans="1:20" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A17" s="14"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
+      <c r="A17" s="14">
+        <v>16</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="16">
+        <v>42618</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="16">
+        <v>42618</v>
+      </c>
       <c r="I17" s="15"/>
       <c r="J17" s="24"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="24"/>
+      <c r="K17" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="N17" s="16">
+        <v>42618</v>
+      </c>
+      <c r="O17" s="24" t="s">
+        <v>56</v>
+      </c>
       <c r="P17" s="21"/>
       <c r="Q17" s="21"/>
       <c r="R17" s="21"/>
@@ -1825,43 +2158,95 @@
       <c r="T17" s="29"/>
     </row>
     <row r="18" spans="1:20" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A18" s="14"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
+      <c r="A18" s="14">
+        <v>17</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="16">
+        <v>42618</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="16">
+        <v>42618</v>
+      </c>
       <c r="I18" s="15"/>
       <c r="J18" s="24"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="24"/>
+      <c r="K18" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="N18" s="16">
+        <v>42618</v>
+      </c>
+      <c r="O18" s="24" t="s">
+        <v>56</v>
+      </c>
       <c r="P18" s="21"/>
       <c r="Q18" s="21"/>
       <c r="R18" s="21"/>
       <c r="S18" s="28"/>
       <c r="T18" s="29"/>
     </row>
-    <row r="19" spans="1:20" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A19" s="14"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
+    <row r="19" spans="1:20" s="9" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+      <c r="A19" s="14">
+        <v>18</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="16">
+        <v>42618</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="16">
+        <v>42618</v>
+      </c>
       <c r="I19" s="15"/>
       <c r="J19" s="24"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="24"/>
+      <c r="K19" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M19" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="N19" s="16">
+        <v>42618</v>
+      </c>
+      <c r="O19" s="24" t="s">
+        <v>56</v>
+      </c>
       <c r="P19" s="21"/>
       <c r="Q19" s="21"/>
       <c r="R19" s="21"/>
@@ -5425,7 +5810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
